--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +537,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H2">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>6.875599819887332</v>
+        <v>0.5325469030994999</v>
       </c>
       <c r="R2">
-        <v>41.25359891932399</v>
+        <v>3.195281418597</v>
       </c>
       <c r="S2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="T2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +599,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H3">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.8228937310109999</v>
+        <v>0.150262541181</v>
       </c>
       <c r="R3">
-        <v>4.937362386066</v>
+        <v>0.901575247086</v>
       </c>
       <c r="S3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="T3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +661,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H4">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.7254332768457499</v>
+        <v>0.09785277198</v>
       </c>
       <c r="R4">
-        <v>2.901733107382999</v>
+        <v>0.39141108792</v>
       </c>
       <c r="S4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="T4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.2284785</v>
+      </c>
+      <c r="H5">
+        <v>0.456957</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.162391</v>
+      </c>
+      <c r="O5">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P5">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q5">
+        <v>0.0123676173645</v>
+      </c>
+      <c r="R5">
+        <v>0.07420570418700001</v>
+      </c>
+      <c r="S5">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="T5">
+        <v>0.01626435854882633</v>
       </c>
     </row>
   </sheetData>
